--- a/配置.xlsx
+++ b/配置.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PlcmHelper\ProcHelper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuto/Workspace/WebProjects/ProcHelper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CE1294-64BA-43C0-A853-31E86FEA3C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89871A-935C-5A46-87C8-9346F77490C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E61C685-7B28-439A-807F-E505443A5BF7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{3E61C685-7B28-439A-807F-E505443A5BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="提示信息设置" sheetId="1" r:id="rId1"/>
-    <sheet name="字段内容设置" sheetId="3" r:id="rId2"/>
+    <sheet name="字段设置" sheetId="3" r:id="rId2"/>
     <sheet name="校验设置" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -25,12 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
-  <si>
-    <t>检查项简要说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>校验函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,30 +165,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查项标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>校验规则详细说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>变更摘要需包含变更对象和版本信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>batch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>校验对象（作为参数传递给校验函数的内容的标识符，可为字符串或数组）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hint_popup:title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,6 +190,74 @@
   </si>
   <si>
     <t>hint_popup:config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值获取方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_value_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义值获取方法函数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom_fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简要说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数（js对象，作为paramValue传入校验函数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"length": 15}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验字段（“字段设置”sheet中的字段标识，若有多个用逗号分隔，取值后组成eleValue对象并作为参数传递给校验函数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locate_field</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,149 +631,149 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -749,12 +790,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82C80C7-1DB1-47D0-9CF9-7181E441CBB1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -762,76 +854,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDF30C4-D4B9-4CAE-828C-300CC0FBFD65}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="29.21875" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="9" width="29.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="b">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/配置.xlsx
+++ b/配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuto/Workspace/WebProjects/ProcHelper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ubuntu\code\ProcHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89871A-935C-5A46-87C8-9346F77490C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84031568-AE06-43C0-805C-74EE6EFC335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{3E61C685-7B28-439A-807F-E505443A5BF7}"/>
+    <workbookView xWindow="-384000" yWindow="-384000" windowWidth="2388" windowHeight="564" activeTab="2" xr2:uid="{3E61C685-7B28-439A-807F-E505443A5BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="提示信息设置" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>校验函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,18 +169,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变更摘要需包含变更对象和版本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>batch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>批量校验（若为true，则将各个校验对象列为一个数组，填入校验对象字段）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hint_popup:title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>custom_fun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,14 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数（js对象，作为paramValue传入校验函数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,15 +229,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定位字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>校验字段（“字段设置”sheet中的字段标识，若有多个用逗号分隔，取值后组成eleValue对象并作为参数传递给校验函数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>locate_field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>get_value_custom_fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div.ge-issue-detail-content-container &gt; div:nth-child(2) &gt; div.ge-issue-detail-description &gt; div.markdown-body.content.flex-1.is-description.white &gt; p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innerText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>检查描述是否超过15个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasDigit</t>
+  </si>
+  <si>
+    <t>describe,taskType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位字段(跳转定位的字段)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量校验（若为true，则对校验字段的每一项分别执行校验函数，进行校验）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_params</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,30 +659,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C887866-C8B2-4408-B543-A8D240B70660}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -691,7 +720,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -714,34 +743,34 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
       <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
       <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" ht="16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -790,23 +819,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82C80C7-1DB1-47D0-9CF9-7181E441CBB1}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -820,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -840,10 +869,27 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -856,94 +902,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDF30C4-D4B9-4CAE-828C-300CC0FBFD65}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="9" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="7" max="9" width="29.109375" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
